--- a/medicine/Mort/Cimetière_marin_de_Souillac/Cimetière_marin_de_Souillac.xlsx
+++ b/medicine/Mort/Cimetière_marin_de_Souillac/Cimetière_marin_de_Souillac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Souillac</t>
+          <t>Cimetière_marin_de_Souillac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière marin de Souillac est un cimetière marin situé sur la côte sud de l'Île Maurice, face à l'océan Indien. Il tient son nom du vicomte François de Souillac, gouverneur de l'île (appelée alors isle de France) au XVIIIe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Souillac</t>
+          <t>Cimetière_marin_de_Souillac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Baron Marie-Claude Antoine Marrier d'Unienville (1766-1831)[1], président de l'Assemblée coloniale et major de Savanne
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Baron Marie-Claude Antoine Marrier d'Unienville (1766-1831), président de l'Assemblée coloniale et major de Savanne
 Philippe Joachim Micouin (1794-1870), capitaine au long cours
 Robert Edward Hart (1892-1954), poète
 Bernard Lespine (1934-2002)</t>
